--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
   <si>
     <t>API Mode</t>
   </si>
@@ -400,6 +400,33 @@
   </si>
   <si>
     <t>RMA-NSWX-1-3</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-001</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-002</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0xAAE</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0yAAE</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL0zAAE</t>
+  </si>
+  <si>
+    <t>RMA-PDNE-1-3</t>
   </si>
 </sst>
 </file>
@@ -409,7 +436,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="75" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +456,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -799,7 +898,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="37">
     <border>
       <left/>
       <right/>
@@ -897,11 +996,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="75">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -963,8 +1080,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="74" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1854,12 +1983,12 @@
     <col min="2" max="2" bestFit="true" customWidth="true" width="39.7578125" collapsed="true"/>
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" width="15.60546875" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="15.1640625" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.6171875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.35546875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.1484375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1909,10 +2038,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1921,7 +2050,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1938,10 +2067,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1950,7 +2079,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1967,10 +2096,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1979,7 +2108,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="146">
   <si>
     <t>API Mode</t>
   </si>
@@ -427,6 +427,60 @@
   </si>
   <si>
     <t>RMA-PDNE-1-3</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-001</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-002</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2ZAAU</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2aAAE</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL2bAAE</t>
+  </si>
+  <si>
+    <t>RMA-7A6H-1-3</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-001</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-002</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3DAAU</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3EAAU</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL3FAAU</t>
+  </si>
+  <si>
+    <t>RMA-B23Z-1-3</t>
   </si>
 </sst>
 </file>
@@ -436,7 +490,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="75" x14ac:knownFonts="1">
+  <fonts count="99" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -456,6 +510,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -898,7 +1096,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="49">
     <border>
       <left/>
       <right/>
@@ -1014,11 +1212,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="99">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1092,8 +1326,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="73" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="74" fillId="0" borderId="36" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="98" fillId="0" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1984,11 +2242,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.6171875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.1484375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.84375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2038,10 +2296,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>119</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2050,7 +2308,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>122</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2067,10 +2325,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>120</v>
+        <v>138</v>
       </c>
       <c r="F3" t="s">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2079,7 +2337,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>124</v>
+        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2096,10 +2354,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>121</v>
+        <v>139</v>
       </c>
       <c r="F4" t="s">
-        <v>127</v>
+        <v>145</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2108,7 +2366,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>126</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="155">
   <si>
     <t>API Mode</t>
   </si>
@@ -481,6 +481,33 @@
   </si>
   <si>
     <t>RMA-B23Z-1-3</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-001</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-002</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6HAAU</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6IAAU</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL6JAAU</t>
+  </si>
+  <si>
+    <t>RMA-F9F4-1-3</t>
   </si>
 </sst>
 </file>
@@ -490,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="99" x14ac:knownFonts="1">
+  <fonts count="111" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -510,6 +537,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1096,7 +1195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="49">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1248,11 +1347,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="99">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1350,8 +1467,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="97" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="98" fillId="0" borderId="48" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="110" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2242,11 +2371,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.08984375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.84375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="20.86328125" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2296,10 +2425,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2308,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2325,10 +2454,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2337,7 +2466,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2354,10 +2483,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2366,7 +2495,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="164">
   <si>
     <t>API Mode</t>
   </si>
@@ -508,6 +508,33 @@
   </si>
   <si>
     <t>RMA-F9F4-1-3</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-001</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-002</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7UAAU</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7VAAU</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xL7WAAU</t>
+  </si>
+  <si>
+    <t>RMA-TZXY-1-3</t>
   </si>
 </sst>
 </file>
@@ -517,7 +544,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="111" x14ac:knownFonts="1">
+  <fonts count="123" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +564,78 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1195,7 +1294,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="61">
     <border>
       <left/>
       <right/>
@@ -1365,11 +1464,29 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="123">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1479,8 +1596,20 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="110" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="121" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="122" fillId="0" borderId="60" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2371,11 +2500,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="13.88671875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="13.94921875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.86328125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.44921875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2425,10 +2554,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2437,7 +2566,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2454,10 +2583,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2466,7 +2595,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2483,10 +2612,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2495,7 +2624,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
